--- a/doc/04_外部設計書_タスク表示_CurrentDirectory.xlsx
+++ b/doc/04_外部設計書_タスク表示_CurrentDirectory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BBD647-4306-4BD5-8E94-DB1F6B7E1A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5B9EF-F975-4E01-9830-331704E4A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>taskcontent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1535,7 +1539,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R88" sqref="R88"/>
+      <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5040,7 +5044,7 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
